--- a/data/input/excel/cindy-pvalues.xlsx
+++ b/data/input/excel/cindy-pvalues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
   <si>
     <t>Modulator</t>
   </si>
@@ -23,211 +23,649 @@
     <t>p-value</t>
   </si>
   <si>
-    <t>TGFBR2</t>
-  </si>
-  <si>
-    <t>ITGB1</t>
-  </si>
-  <si>
-    <t>ITGB5</t>
-  </si>
-  <si>
-    <t>APBB1IP</t>
-  </si>
-  <si>
-    <t>G3BP1</t>
-  </si>
-  <si>
-    <t>RHOQ</t>
-  </si>
-  <si>
-    <t>LINGO1</t>
-  </si>
-  <si>
-    <t>ANXA1</t>
-  </si>
-  <si>
-    <t>KITLG</t>
-  </si>
-  <si>
-    <t>NPHS1</t>
-  </si>
-  <si>
-    <t>PDGFRA</t>
-  </si>
-  <si>
-    <t>PRKCA</t>
-  </si>
-  <si>
-    <t>PDGFRB</t>
-  </si>
-  <si>
-    <t>RHOD</t>
-  </si>
-  <si>
-    <t>AKT1</t>
-  </si>
-  <si>
-    <t>CDH13</t>
-  </si>
-  <si>
-    <t>RRAS</t>
-  </si>
-  <si>
-    <t>CD3E</t>
-  </si>
-  <si>
-    <t>ITK</t>
-  </si>
-  <si>
-    <t>INPP5D</t>
-  </si>
-  <si>
-    <t>FURIN</t>
-  </si>
-  <si>
-    <t>LPAR6</t>
-  </si>
-  <si>
-    <t>ITGB2</t>
-  </si>
-  <si>
-    <t>PDPK1</t>
-  </si>
-  <si>
-    <t>TBXA2R</t>
-  </si>
-  <si>
-    <t>P2RY12</t>
-  </si>
-  <si>
-    <t>SPN</t>
-  </si>
-  <si>
-    <t>HRH3</t>
-  </si>
-  <si>
-    <t>ADCY2</t>
-  </si>
-  <si>
-    <t>RHOH</t>
-  </si>
-  <si>
-    <t>RRAD</t>
-  </si>
-  <si>
-    <t>ITGAM</t>
-  </si>
-  <si>
-    <t>CX3CL1</t>
-  </si>
-  <si>
-    <t>GHR</t>
-  </si>
-  <si>
-    <t>CD79B</t>
-  </si>
-  <si>
-    <t>C3AR1</t>
-  </si>
-  <si>
-    <t>FGFR1</t>
-  </si>
-  <si>
-    <t>DNM2</t>
-  </si>
-  <si>
-    <t>DOK3</t>
-  </si>
-  <si>
-    <t>OPRL1</t>
-  </si>
-  <si>
-    <t>AVPR1A</t>
-  </si>
-  <si>
-    <t>BDKRB2</t>
-  </si>
-  <si>
-    <t>RAC1</t>
-  </si>
-  <si>
-    <t>HOMER2</t>
-  </si>
-  <si>
-    <t>P2RY4</t>
-  </si>
-  <si>
-    <t>CSF1R</t>
-  </si>
-  <si>
-    <t>ADCY9</t>
-  </si>
-  <si>
-    <t>IQGAP1</t>
-  </si>
-  <si>
-    <t>RALA</t>
-  </si>
-  <si>
-    <t>TNFRSF21</t>
-  </si>
-  <si>
-    <t>PTK2B</t>
-  </si>
-  <si>
-    <t>IL6R</t>
-  </si>
-  <si>
-    <t>USP8</t>
-  </si>
-  <si>
-    <t>GRIA2</t>
-  </si>
-  <si>
-    <t>ADCY4</t>
-  </si>
-  <si>
-    <t>ITGA6</t>
-  </si>
-  <si>
-    <t>P2RY6</t>
-  </si>
-  <si>
-    <t>RAB5A</t>
-  </si>
-  <si>
-    <t>ELMO1</t>
-  </si>
-  <si>
-    <t>NPFFR2</t>
-  </si>
-  <si>
-    <t>HOMER3</t>
-  </si>
-  <si>
-    <t>TGFBR1</t>
-  </si>
-  <si>
-    <t>EPHA1</t>
-  </si>
-  <si>
-    <t>LPAR1</t>
-  </si>
-  <si>
-    <t>ADCY3</t>
-  </si>
-  <si>
-    <t>GPR65</t>
-  </si>
-  <si>
-    <t>PTPRC</t>
-  </si>
-  <si>
-    <t>CAV1</t>
-  </si>
-  <si>
-    <t>NFKB1</t>
+    <t>Tgfbr2</t>
+  </si>
+  <si>
+    <t>Ptprn</t>
+  </si>
+  <si>
+    <t>Treml1</t>
+  </si>
+  <si>
+    <t>Grik3</t>
+  </si>
+  <si>
+    <t>Il31ra</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Csf1</t>
+  </si>
+  <si>
+    <t>Itgb5</t>
+  </si>
+  <si>
+    <t>Apbb1ip</t>
+  </si>
+  <si>
+    <t>P2rx4</t>
+  </si>
+  <si>
+    <t>Nod1</t>
+  </si>
+  <si>
+    <t>G3bp1</t>
+  </si>
+  <si>
+    <t>Adgrl1</t>
+  </si>
+  <si>
+    <t>Adrb1</t>
+  </si>
+  <si>
+    <t>Slc7a1</t>
+  </si>
+  <si>
+    <t>Cd48</t>
+  </si>
+  <si>
+    <t>Mark2</t>
+  </si>
+  <si>
+    <t>Kcnk2</t>
+  </si>
+  <si>
+    <t>Rhoq</t>
+  </si>
+  <si>
+    <t>Rasgrp1</t>
+  </si>
+  <si>
+    <t>Lingo1</t>
+  </si>
+  <si>
+    <t>Cyth3</t>
+  </si>
+  <si>
+    <t>Rab18</t>
+  </si>
+  <si>
+    <t>Anxa1</t>
+  </si>
+  <si>
+    <t>Rab29</t>
+  </si>
+  <si>
+    <t>Ager</t>
+  </si>
+  <si>
+    <t>Osmr</t>
+  </si>
+  <si>
+    <t>Kitl</t>
+  </si>
+  <si>
+    <t>Gp6</t>
+  </si>
+  <si>
+    <t>Ephb3</t>
+  </si>
+  <si>
+    <t>Pdgfra</t>
+  </si>
+  <si>
+    <t>Prkca</t>
+  </si>
+  <si>
+    <t>Pdgfrb</t>
+  </si>
+  <si>
+    <t>Tnfsf13b</t>
+  </si>
+  <si>
+    <t>Adgra3</t>
+  </si>
+  <si>
+    <t>Acvrl1</t>
+  </si>
+  <si>
+    <t>Grik2</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
+    <t>Rasl10a</t>
+  </si>
+  <si>
+    <t>Glrb</t>
+  </si>
+  <si>
+    <t>Tnfsf12</t>
+  </si>
+  <si>
+    <t>Rgs14</t>
+  </si>
+  <si>
+    <t>Rap1a</t>
+  </si>
+  <si>
+    <t>Mas1</t>
+  </si>
+  <si>
+    <t>Gab2</t>
+  </si>
+  <si>
+    <t>Olfr1444</t>
+  </si>
+  <si>
+    <t>Itsn1</t>
+  </si>
+  <si>
+    <t>Rhod</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
+    <t>Akt1</t>
+  </si>
+  <si>
+    <t>Cdh13</t>
+  </si>
+  <si>
+    <t>Rras</t>
+  </si>
+  <si>
+    <t>Cap2</t>
+  </si>
+  <si>
+    <t>Cd3e</t>
+  </si>
+  <si>
+    <t>Arhgap17</t>
+  </si>
+  <si>
+    <t>Rab11a</t>
+  </si>
+  <si>
+    <t>Itk</t>
+  </si>
+  <si>
+    <t>Inpp5d</t>
+  </si>
+  <si>
+    <t>Itpr3</t>
+  </si>
+  <si>
+    <t>Furin</t>
+  </si>
+  <si>
+    <t>C5ar2</t>
+  </si>
+  <si>
+    <t>Grasp</t>
+  </si>
+  <si>
+    <t>Lpar6</t>
+  </si>
+  <si>
+    <t>Adap2</t>
+  </si>
+  <si>
+    <t>Aplp2</t>
+  </si>
+  <si>
+    <t>Rras2</t>
+  </si>
+  <si>
+    <t>Adam9</t>
+  </si>
+  <si>
+    <t>Rab40b</t>
+  </si>
+  <si>
+    <t>Grm5</t>
+  </si>
+  <si>
+    <t>Gabrb1</t>
+  </si>
+  <si>
+    <t>Bcl10</t>
+  </si>
+  <si>
+    <t>Rab3d</t>
+  </si>
+  <si>
+    <t>Gria3</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>Traf4</t>
+  </si>
+  <si>
+    <t>Gabra4</t>
+  </si>
+  <si>
+    <t>Gabre</t>
+  </si>
+  <si>
+    <t>Pdpk1</t>
+  </si>
+  <si>
+    <t>Tbxa2r</t>
+  </si>
+  <si>
+    <t>Rhoc</t>
+  </si>
+  <si>
+    <t>P2ry12</t>
+  </si>
+  <si>
+    <t>Rab3b</t>
+  </si>
+  <si>
+    <t>Rab39b</t>
+  </si>
+  <si>
+    <t>Rab9</t>
+  </si>
+  <si>
+    <t>Arhgap10</t>
+  </si>
+  <si>
+    <t>Spn</t>
+  </si>
+  <si>
+    <t>Gpr12</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>Fcgr2b</t>
+  </si>
+  <si>
+    <t>Gabrr2</t>
+  </si>
+  <si>
+    <t>Hbegf</t>
+  </si>
+  <si>
+    <t>Hrh3</t>
+  </si>
+  <si>
+    <t>Adcy2</t>
+  </si>
+  <si>
+    <t>Arrb1</t>
+  </si>
+  <si>
+    <t>Rhoh</t>
+  </si>
+  <si>
+    <t>Sdcbp</t>
+  </si>
+  <si>
+    <t>Rrad</t>
+  </si>
+  <si>
+    <t>Unc5b</t>
+  </si>
+  <si>
+    <t>Rgs19</t>
+  </si>
+  <si>
+    <t>Trpv4</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Gabra3</t>
+  </si>
+  <si>
+    <t>Rasd2</t>
+  </si>
+  <si>
+    <t>Ghr</t>
+  </si>
+  <si>
+    <t>Mast1</t>
+  </si>
+  <si>
+    <t>Cd79b</t>
+  </si>
+  <si>
+    <t>Gabrr1</t>
+  </si>
+  <si>
+    <t>Chrna6</t>
+  </si>
+  <si>
+    <t>Gnaz</t>
+  </si>
+  <si>
+    <t>Rgs20</t>
+  </si>
+  <si>
+    <t>Sipa1l1</t>
+  </si>
+  <si>
+    <t>C3ar1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>Dnm2</t>
+  </si>
+  <si>
+    <t>Dok3</t>
+  </si>
+  <si>
+    <t>Oprl1</t>
+  </si>
+  <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>Cd14</t>
+  </si>
+  <si>
+    <t>Itpr1</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
+    <t>Avpr1a</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
+    <t>Cd274</t>
+  </si>
+  <si>
+    <t>Diras1</t>
+  </si>
+  <si>
+    <t>Nfam1</t>
+  </si>
+  <si>
+    <t>Chrna4</t>
+  </si>
+  <si>
+    <t>Bdkrb2</t>
+  </si>
+  <si>
+    <t>Rac1</t>
+  </si>
+  <si>
+    <t>Unc5a</t>
+  </si>
+  <si>
+    <t>Gria1</t>
+  </si>
+  <si>
+    <t>Chrng</t>
+  </si>
+  <si>
+    <t>Homer2</t>
+  </si>
+  <si>
+    <t>Jag2</t>
+  </si>
+  <si>
+    <t>Mras</t>
+  </si>
+  <si>
+    <t>Il1rl1</t>
+  </si>
+  <si>
+    <t>Rab35</t>
+  </si>
+  <si>
+    <t>Rasa4</t>
+  </si>
+  <si>
+    <t>P2ry4</t>
+  </si>
+  <si>
+    <t>Plxna1</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>Drd1</t>
+  </si>
+  <si>
+    <t>Csf1r</t>
+  </si>
+  <si>
+    <t>Adcy9</t>
+  </si>
+  <si>
+    <t>Slc9a3r1</t>
+  </si>
+  <si>
+    <t>Rgs17</t>
+  </si>
+  <si>
+    <t>Iqgap1</t>
+  </si>
+  <si>
+    <t>Rgs6</t>
+  </si>
+  <si>
+    <t>Tulp3</t>
+  </si>
+  <si>
+    <t>Ly6e</t>
+  </si>
+  <si>
+    <t>Rab10</t>
+  </si>
+  <si>
+    <t>Fgd2</t>
+  </si>
+  <si>
+    <t>Ddr1</t>
+  </si>
+  <si>
+    <t>Rala</t>
+  </si>
+  <si>
+    <t>Tnfrsf21</t>
+  </si>
+  <si>
+    <t>Ralgps2</t>
+  </si>
+  <si>
+    <t>Dner</t>
+  </si>
+  <si>
+    <t>Ptk2b</t>
+  </si>
+  <si>
+    <t>Tnfrsf19</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
+    <t>Il6ra</t>
+  </si>
+  <si>
+    <t>Usp8</t>
+  </si>
+  <si>
+    <t>Gna11</t>
+  </si>
+  <si>
+    <t>Adgra2</t>
+  </si>
+  <si>
+    <t>Nmur1</t>
+  </si>
+  <si>
+    <t>Rock2</t>
+  </si>
+  <si>
+    <t>Celsr2</t>
+  </si>
+  <si>
+    <t>Unc13a</t>
+  </si>
+  <si>
+    <t>Rasl10b</t>
+  </si>
+  <si>
+    <t>Adcy4</t>
+  </si>
+  <si>
+    <t>Rab14</t>
+  </si>
+  <si>
+    <t>Rgs9</t>
+  </si>
+  <si>
+    <t>Rhoa</t>
+  </si>
+  <si>
+    <t>Grin2c</t>
+  </si>
+  <si>
+    <t>Grik4</t>
+  </si>
+  <si>
+    <t>Itga6</t>
+  </si>
+  <si>
+    <t>P2ry6</t>
+  </si>
+  <si>
+    <t>Olfr187</t>
+  </si>
+  <si>
+    <t>Gabra2</t>
+  </si>
+  <si>
+    <t>Rasgrf2</t>
+  </si>
+  <si>
+    <t>Rab5a</t>
+  </si>
+  <si>
+    <t>Ptprt</t>
+  </si>
+  <si>
+    <t>Ror2</t>
+  </si>
+  <si>
+    <t>Lancl2</t>
+  </si>
+  <si>
+    <t>Dgkz</t>
+  </si>
+  <si>
+    <t>Elmo1</t>
+  </si>
+  <si>
+    <t>Npffr2</t>
+  </si>
+  <si>
+    <t>Plek2</t>
+  </si>
+  <si>
+    <t>Ube2b</t>
+  </si>
+  <si>
+    <t>Homer3</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
+    <t>Dlg4</t>
+  </si>
+  <si>
+    <t>Rhoj</t>
+  </si>
+  <si>
+    <t>Magi3</t>
+  </si>
+  <si>
+    <t>Olfr1052</t>
+  </si>
+  <si>
+    <t>Arhgap33</t>
+  </si>
+  <si>
+    <t>Atp6ap2</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
+    <t>Sla2</t>
+  </si>
+  <si>
+    <t>Grin2b</t>
+  </si>
+  <si>
+    <t>Lpar1</t>
+  </si>
+  <si>
+    <t>Gabrb3</t>
+  </si>
+  <si>
+    <t>Mib1</t>
+  </si>
+  <si>
+    <t>Adcy3</t>
+  </si>
+  <si>
+    <t>Arap3</t>
+  </si>
+  <si>
+    <t>Rab9b</t>
+  </si>
+  <si>
+    <t>Chrnb1</t>
+  </si>
+  <si>
+    <t>Rit1</t>
+  </si>
+  <si>
+    <t>Gpr65</t>
+  </si>
+  <si>
+    <t>Grm1</t>
+  </si>
+  <si>
+    <t>Ptprc</t>
+  </si>
+  <si>
+    <t>L1cam</t>
+  </si>
+  <si>
+    <t>Cav1</t>
+  </si>
+  <si>
+    <t>Skap1</t>
+  </si>
+  <si>
+    <t>Nfkb1</t>
   </si>
 </sst>
 </file>
@@ -294,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
         <v>1.284793367118851E-6</v>
@@ -305,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>3.61916474886357E-5</v>
+        <v>1.3480514640580537E-6</v>
       </c>
     </row>
     <row r="4">
@@ -316,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C4" t="n">
-        <v>4.722926453725661E-5</v>
+        <v>2.5188414278698443E-6</v>
       </c>
     </row>
     <row r="5">
@@ -327,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>5.663429947832414E-5</v>
+        <v>7.266317417585826E-6</v>
       </c>
     </row>
     <row r="6">
@@ -338,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0256723692316682E-4</v>
+        <v>2.0507026538282797E-5</v>
       </c>
     </row>
     <row r="7">
@@ -349,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C7" t="n">
-        <v>1.793057208434915E-4</v>
+        <v>3.61916474886357E-5</v>
       </c>
     </row>
     <row r="8">
@@ -360,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>2.778329774850321E-4</v>
+        <v>4.0845563030048697E-5</v>
       </c>
     </row>
     <row r="9">
@@ -371,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C9" t="n">
-        <v>3.544758973534023E-4</v>
+        <v>4.722926453725661E-5</v>
       </c>
     </row>
     <row r="10">
@@ -382,10 +820,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C10" t="n">
-        <v>4.523753423084594E-4</v>
+        <v>5.663429947832414E-5</v>
       </c>
     </row>
     <row r="11">
@@ -393,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C11" t="n">
-        <v>5.173681770513203E-4</v>
+        <v>5.663429947832414E-5</v>
       </c>
     </row>
     <row r="12">
@@ -404,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C12" t="n">
-        <v>5.499358353716945E-4</v>
+        <v>7.483258555476641E-5</v>
       </c>
     </row>
     <row r="13">
@@ -415,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C13" t="n">
-        <v>5.990210856724197E-4</v>
+        <v>1.0256723692316682E-4</v>
       </c>
     </row>
     <row r="14">
@@ -426,10 +864,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>6.686569176056799E-4</v>
+        <v>1.1440240721137506E-4</v>
       </c>
     </row>
     <row r="15">
@@ -437,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002307727164495572</v>
+        <v>1.1440240721137506E-4</v>
       </c>
     </row>
     <row r="16">
@@ -448,10 +886,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0023945737098175885</v>
+        <v>1.2009337439820561E-4</v>
       </c>
     </row>
     <row r="17">
@@ -459,10 +897,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002610238046523682</v>
+        <v>1.245472631845309E-4</v>
       </c>
     </row>
     <row r="18">
@@ -470,10 +908,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0028106096154634995</v>
+        <v>1.4234415369475167E-4</v>
       </c>
     </row>
     <row r="19">
@@ -481,10 +919,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002989379877413305</v>
+        <v>1.687343216461372E-4</v>
       </c>
     </row>
     <row r="20">
@@ -492,10 +930,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0034240740034015395</v>
+        <v>1.793057208434915E-4</v>
       </c>
     </row>
     <row r="21">
@@ -503,10 +941,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0035533228341160694</v>
+        <v>2.4599219323218486E-4</v>
       </c>
     </row>
     <row r="22">
@@ -514,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0036422103232313175</v>
+        <v>2.778329774850321E-4</v>
       </c>
     </row>
     <row r="23">
@@ -525,10 +963,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0042772613289002665</v>
+        <v>3.0255392338648056E-4</v>
       </c>
     </row>
     <row r="24">
@@ -536,10 +974,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005758199580193121</v>
+        <v>3.459406596932566E-4</v>
       </c>
     </row>
     <row r="25">
@@ -547,10 +985,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007381870965671087</v>
+        <v>3.544758973534023E-4</v>
       </c>
     </row>
     <row r="26">
@@ -558,10 +996,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007855596798885716</v>
+        <v>3.721861409396974E-4</v>
       </c>
     </row>
     <row r="27">
@@ -569,10 +1007,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008678349665847277</v>
+        <v>3.767508649261814E-4</v>
       </c>
     </row>
     <row r="28">
@@ -580,10 +1018,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C28" t="n">
-        <v>0.010078933411004612</v>
+        <v>3.9078519974705965E-4</v>
       </c>
     </row>
     <row r="29">
@@ -591,10 +1029,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.012309233983722375</v>
+        <v>4.523753423084594E-4</v>
       </c>
     </row>
     <row r="30">
@@ -602,10 +1040,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C30" t="n">
-        <v>0.013104060352918842</v>
+        <v>4.5792834442008097E-4</v>
       </c>
     </row>
     <row r="31">
@@ -613,10 +1051,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.013605718396585666</v>
+        <v>5.048901521526926E-4</v>
       </c>
     </row>
     <row r="32">
@@ -624,10 +1062,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01448546266054468</v>
+        <v>5.499358353716945E-4</v>
       </c>
     </row>
     <row r="33">
@@ -635,10 +1073,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C33" t="n">
-        <v>0.016014695651296686</v>
+        <v>5.990210856724197E-4</v>
       </c>
     </row>
     <row r="34">
@@ -646,10 +1084,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C34" t="n">
-        <v>0.017707925600807098</v>
+        <v>6.686569176056799E-4</v>
       </c>
     </row>
     <row r="35">
@@ -657,10 +1095,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01838877676517114</v>
+        <v>6.768800907915198E-4</v>
       </c>
     </row>
     <row r="36">
@@ -668,10 +1106,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C36" t="n">
-        <v>0.018857386116902363</v>
+        <v>7.02164512474656E-4</v>
       </c>
     </row>
     <row r="37">
@@ -679,10 +1117,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02166038681591887</v>
+        <v>7.283983387021209E-4</v>
       </c>
     </row>
     <row r="38">
@@ -690,10 +1128,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C38" t="n">
-        <v>0.021935331838033225</v>
+        <v>7.464326675620853E-4</v>
       </c>
     </row>
     <row r="39">
@@ -701,10 +1139,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C39" t="n">
-        <v>0.022213825231181736</v>
+        <v>9.078469980927557E-4</v>
       </c>
     </row>
     <row r="40">
@@ -712,10 +1150,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C40" t="n">
-        <v>0.023364230257070715</v>
+        <v>0.0010645322259437591</v>
       </c>
     </row>
     <row r="41">
@@ -723,10 +1161,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>0.023364230257070715</v>
+        <v>0.001118013043938978</v>
       </c>
     </row>
     <row r="42">
@@ -734,10 +1172,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C42" t="n">
-        <v>0.027192618255370567</v>
+        <v>0.0011457585896766434</v>
       </c>
     </row>
     <row r="43">
@@ -745,10 +1183,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C43" t="n">
-        <v>0.030094372745538264</v>
+        <v>0.0012332209478299785</v>
       </c>
     </row>
     <row r="44">
@@ -756,10 +1194,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.030094372745538264</v>
+        <v>0.0014288215787886228</v>
       </c>
     </row>
     <row r="45">
@@ -767,10 +1205,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03289167061706348</v>
+        <v>0.001519271112162736</v>
       </c>
     </row>
     <row r="46">
@@ -778,10 +1216,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03641549287524891</v>
+        <v>0.0016154842298234883</v>
       </c>
     </row>
     <row r="47">
@@ -789,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04032576504589157</v>
+        <v>0.0016354506648438702</v>
       </c>
     </row>
     <row r="48">
@@ -800,10 +1238,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.040843854538069324</v>
+        <v>0.001966568592548563</v>
       </c>
     </row>
     <row r="49">
@@ -811,10 +1249,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04409867554427039</v>
+        <v>0.002307727164495572</v>
       </c>
     </row>
     <row r="50">
@@ -822,10 +1260,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C50" t="n">
-        <v>0.048856102747693295</v>
+        <v>0.0023652651225245826</v>
       </c>
     </row>
     <row r="51">
@@ -833,10 +1271,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.049486690370038285</v>
+        <v>0.0023945737098175885</v>
       </c>
     </row>
     <row r="52">
@@ -844,10 +1282,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.05077302436821626</v>
+        <v>0.002610238046523682</v>
       </c>
     </row>
     <row r="53">
@@ -855,10 +1293,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C53" t="n">
-        <v>0.053449603617196556</v>
+        <v>0.0028106096154634995</v>
       </c>
     </row>
     <row r="54">
@@ -866,10 +1304,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C54" t="n">
-        <v>0.053449603617196556</v>
+        <v>0.0028807877580926218</v>
       </c>
     </row>
     <row r="55">
@@ -877,10 +1315,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06079371062224905</v>
+        <v>0.002989379877413305</v>
       </c>
     </row>
     <row r="56">
@@ -888,10 +1326,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06319351894027476</v>
+        <v>0.0030264864051148567</v>
       </c>
     </row>
     <row r="57">
@@ -899,10 +1337,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06829019514724953</v>
+        <v>0.0032995625981113684</v>
       </c>
     </row>
     <row r="58">
@@ -910,10 +1348,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06829019514724953</v>
+        <v>0.0034240740034015395</v>
       </c>
     </row>
     <row r="59">
@@ -921,10 +1359,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07286039979427324</v>
+        <v>0.0035533228341160694</v>
       </c>
     </row>
     <row r="60">
@@ -932,10 +1370,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0767432885751246</v>
+        <v>0.0035974898326688663</v>
       </c>
     </row>
     <row r="61">
@@ -943,10 +1381,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0767432885751246</v>
+        <v>0.0036422103232313175</v>
       </c>
     </row>
     <row r="62">
@@ -954,10 +1392,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07979536757670318</v>
+        <v>0.003733339916319831</v>
       </c>
     </row>
     <row r="63">
@@ -965,10 +1403,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08084039888888238</v>
+        <v>0.004070789061634223</v>
       </c>
     </row>
     <row r="64">
@@ -976,10 +1414,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09454614385588328</v>
+        <v>0.0042772613289002665</v>
       </c>
     </row>
     <row r="65">
@@ -987,10 +1425,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09579212043053915</v>
+        <v>0.004962297929929106</v>
       </c>
     </row>
     <row r="66">
@@ -998,10 +1436,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09963347226536243</v>
+        <v>0.005024155930620621</v>
       </c>
     </row>
     <row r="67">
@@ -1009,10 +1447,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C67" t="n">
-        <v>0.10780483815240079</v>
+        <v>0.005024155930620621</v>
       </c>
     </row>
     <row r="68">
@@ -1020,10 +1458,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>0.10780483815240079</v>
+        <v>0.0052794695696499585</v>
       </c>
     </row>
     <row r="69">
@@ -1031,9 +1469,1615 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.005345318910374229</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="C69" t="n">
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.005411997292252505</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0056872146841648015</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.006126772938932418</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.006280791247020364</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.006359260741408112</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.006438720410282182</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.006438720410282182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.007290646157357092</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.007381870965671087</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.007381870965671087</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.007855596798885716</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.008154464117925858</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.008678349665847277</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.009236290472733838</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.009588331324110667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.009588331324110667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.009708669960370247</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.010078933411004612</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.010594948963313547</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.011137717171815146</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.011277753092250188</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.011419571685939302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.011708649550185088</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.012309233983722375</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.013104060352918842</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.013605718396585666</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.013605718396585666</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.014126847175265989</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01448546266054468</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.015230630355041096</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.015617673826441133</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.015814921199346972</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.016014695651296686</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.017707925600807098</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01793198515780437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01793198515780437</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.01838877676517114</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.01838877676517114</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.018857386116902363</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.021120957431172444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.021388943895388604</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.021388943895388604</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.021388943895388604</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.021388943895388604</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.02166038681591887</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.021935331838033225</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.022213825231181736</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.023364230257070715</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.023364230257070715</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.02396197341407004</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>217</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.025204563573951448</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.025204563573951448</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.025850253414600687</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.027192618255370567</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.027192618255370567</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.027890208398482923</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.028245811873185485</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.028970939861133582</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.029340588613065342</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.030094372745538264</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.030094372745538264</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>217</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.030094372745538264</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.03166171973348833</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.032066402845008085</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.03289167061706348</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.03331239802198204</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.03331239802198204</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.03460783200407972</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.035954728811085</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.035954728811085</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.03641549287524891</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.03641549287524891</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.03735519941625709</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.039309650049597834</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>217</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.04032576504589157</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.040843854538069324</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.04136875334191406</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0429852384518554</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>217</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.04409867554427039</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.045241655489214314</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.045241655489214314</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>217</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.04582447721021293</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.046414991393229514</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>217</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0470133033850165</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.048856102747693295</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>217</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.048856102747693295</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>217</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.049486690370038285</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.05012562594762322</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.05077302436821626</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>217</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.05077302436821626</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.05209367771798357</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.05276717093273478</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.053449603617196556</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.053449603617196556</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.05700024818547966</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.05848755014015135</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.05848755014015135</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.060014776769669355</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.06079371062224905</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.06079371062224905</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.06158304836081821</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.06319351894027476</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.06484737741061178</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.06569095846298222</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.06569095846298222</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.06654584873134735</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>217</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.06741220717105698</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>217</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.06829019514724953</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>217</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.06829019514724953</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>217</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.06917997647598823</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.07099558696263286</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>217</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.07192175638928619</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.07286039979427324</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>217</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.07381169389520324</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>217</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.074775818125674</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>217</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.07575295468269677</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>217</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0767432885751246</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0767432885751246</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0767432885751246</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0777470076730982</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0777470076730982</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.07979536757670318</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.08084039888888238</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.08406130578066184</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>217</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.08628215750439902</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.09090820276919111</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.09090820276919111</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.09454614385588328</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>217</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.09454614385588328</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>217</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.09454614385588328</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>217</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.09454614385588328</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.09579212043053915</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>217</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.09579212043053915</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.09705516723575305</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.09705516723575305</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>217</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.09963347226536243</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>217</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.10094924102171525</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.10094924102171525</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>217</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.10363531867267595</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>217</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.10363531867267595</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.10780483815240079</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>217</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.10780483815240079</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.10780483815240079</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.11068137671221205</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.11214956907151961</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="n">
         <v>0.11214956907151961</v>
       </c>
     </row>
